--- a/htdocs/App/Controllers/Traspasos/5709HXJ.xlsx
+++ b/htdocs/App/Controllers/Traspasos/5709HXJ.xlsx
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>28-12-2017</t>
+    <t>29-01-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-12-28</t>
+    <t>2018-01-29</t>
   </si>
   <si>
     <t>x</t>
@@ -64,7 +64,7 @@
     <t>Compraventa:</t>
   </si>
   <si>
-    <t>Vicktor</t>
+    <t>Viktor</t>
   </si>
   <si>
     <t>Telf.</t>
@@ -79,7 +79,7 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>Sin confirmar</t>
+    <t>viktor_l@hotmail.com</t>
   </si>
   <si>
     <t>Tramitación Transferencia………………..</t>
@@ -94,10 +94,10 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>VICKTOR</t>
-  </si>
-  <si>
-    <t>No disponible</t>
+    <t>Rosa Mª Sampol</t>
+  </si>
+  <si>
+    <t>no disponible</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>655178632</v>
+        <v>2087</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
